--- a/Document/Book2.xlsx
+++ b/Document/Book2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MrFermz\leaveAppDoc\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98AA577D-FF17-46BB-9342-366B96DFC0DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026956E-2BE4-4CB1-AC43-849FF43FEFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>หัวข้องาน</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <t>History</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -272,12 +275,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -288,6 +291,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4007FBD-5284-4905-A65D-0EBCA39CCEAF}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -936,12 +942,12 @@
     <col min="2" max="2" width="17.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="24.6">
+    <row r="2" spans="2:9" ht="24.6">
       <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
@@ -953,129 +959,148 @@
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="2:8" ht="24.6">
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="2:9" ht="24.6">
       <c r="B3" s="14"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24.6">
+    <row r="4" spans="2:9" ht="24.6">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="24.6">
+      <c r="C4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="24.6">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="24.6">
+      <c r="C5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="24.6">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="7"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="2:8" ht="24.6">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" ht="24.6">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="7"/>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="2:8" ht="24.6">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" ht="24.6">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="C8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C2:H2"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Document/Book2.xlsx
+++ b/Document/Book2.xlsx
@@ -2,19 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MrFermz\leaveAppDoc\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1026956E-2BE4-4CB1-AC43-849FF43FEFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1F6D2-9F20-478E-BB7E-8BF3E683C847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="gantt" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix_table" sheetId="2" r:id="rId2"/>
+    <sheet name="DICT_userTypes" sheetId="8" r:id="rId3"/>
+    <sheet name="DICT_departments" sheetId="9" r:id="rId4"/>
+    <sheet name="DICT_approver" sheetId="10" r:id="rId5"/>
+    <sheet name="DICT_leavecount" sheetId="7" r:id="rId6"/>
+    <sheet name="DICT_users" sheetId="3" r:id="rId7"/>
+    <sheet name="DICT_leaves" sheetId="6" r:id="rId8"/>
+    <sheet name="DICT_uploads" sheetId="11" r:id="rId9"/>
+    <sheet name="DICT_leaveCapacity" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="115">
   <si>
     <t>หัวข้องาน</t>
   </si>
@@ -125,6 +133,258 @@
   </si>
   <si>
     <t>History</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>ชนิดตัวแปร</t>
+  </si>
+  <si>
+    <t>ขนาดข้อมูล</t>
+  </si>
+  <si>
+    <t>คำอธิบาย</t>
+  </si>
+  <si>
+    <t>คีย์</t>
+  </si>
+  <si>
+    <t>อ้างอิง</t>
+  </si>
+  <si>
+    <t>UID</t>
+  </si>
+  <si>
+    <t>empID</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>approverID</t>
+  </si>
+  <si>
+    <t>typeID</t>
+  </si>
+  <si>
+    <t>deptID</t>
+  </si>
+  <si>
+    <t>leavecountID</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t>PK</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>ชื่อจริง</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>ชื่อเล่น</t>
+  </si>
+  <si>
+    <t>ชื่อผู้ใช้</t>
+  </si>
+  <si>
+    <t>รหัสผ่าน</t>
+  </si>
+  <si>
+    <t>รหัสพนักงาน</t>
+  </si>
+  <si>
+    <t>รหัสผู้ใช้</t>
+  </si>
+  <si>
+    <t>approver</t>
+  </si>
+  <si>
+    <t>leavecount</t>
+  </si>
+  <si>
+    <t>userTypes</t>
+  </si>
+  <si>
+    <t>departments</t>
+  </si>
+  <si>
+    <t>รหัสประเภทผู้ใช้</t>
+  </si>
+  <si>
+    <t>รหัสแผนก</t>
+  </si>
+  <si>
+    <t>รหัสจำนวนการลา</t>
+  </si>
+  <si>
+    <t>leaveID</t>
+  </si>
+  <si>
+    <t>leaveType</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>dateStart</t>
+  </si>
+  <si>
+    <t>dateEnd</t>
+  </si>
+  <si>
+    <t>reasons</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>actionTimeStamp</t>
+  </si>
+  <si>
+    <t>dateApprove</t>
+  </si>
+  <si>
+    <t>dateReject</t>
+  </si>
+  <si>
+    <t>rejectReasons</t>
+  </si>
+  <si>
+    <t>uploadID</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>ประเภทการลา</t>
+  </si>
+  <si>
+    <t>รหัสการลา</t>
+  </si>
+  <si>
+    <t>วันที่สร้างการลา</t>
+  </si>
+  <si>
+    <t>วันที่เริ่มลา</t>
+  </si>
+  <si>
+    <t>วันที่สิ้นสุดลา</t>
+  </si>
+  <si>
+    <t>สถานะการลา</t>
+  </si>
+  <si>
+    <t>เหตุผลการลา</t>
+  </si>
+  <si>
+    <t>วันที่อนุมัติ</t>
+  </si>
+  <si>
+    <t>วันที่ไม่อนุมัติ</t>
+  </si>
+  <si>
+    <t>เหตุผลที่ไม่อนุมัติ</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>uploads</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>vacation</t>
+  </si>
+  <si>
+    <t>substitution</t>
+  </si>
+  <si>
+    <t>subtitutionMax</t>
+  </si>
+  <si>
+    <t>typeName</t>
+  </si>
+  <si>
+    <t>ชื่อประเภทผู้ใช้</t>
+  </si>
+  <si>
+    <t>deptName</t>
+  </si>
+  <si>
+    <t>ชื่อแผนก</t>
+  </si>
+  <si>
+    <t>รหัสผู้อนุมัติ</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>ที่อยู่ไฟล์อัปโหลด</t>
+  </si>
+  <si>
+    <t>รหัสไฟล์อัปโหลด</t>
+  </si>
+  <si>
+    <t>leavecapacityID</t>
+  </si>
+  <si>
+    <t>รหัสวันลาสูงสุด</t>
+  </si>
+  <si>
+    <t>วันลาป่วยสูงสุด</t>
+  </si>
+  <si>
+    <t>วันลากิจสูงสุด</t>
+  </si>
+  <si>
+    <t>วันลาพักร้อนสูงสุด</t>
+  </si>
+  <si>
+    <t>จำนวนลาพักร้อน</t>
+  </si>
+  <si>
+    <t>จำนวนลากิจ</t>
+  </si>
+  <si>
+    <t>จำนวนลาป่วย</t>
+  </si>
+  <si>
+    <t>จำนวนลาชดเชย</t>
+  </si>
+  <si>
+    <t>วันลาชดเชยสูงสุด</t>
+  </si>
+  <si>
+    <t>วันที่บันทึกการอนุมัติ</t>
   </si>
 </sst>
 </file>
@@ -249,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -281,6 +541,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -293,8 +559,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -611,10 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8A3C22-EB4A-4FEC-B563-BF846B6B69F5}">
+  <sheetPr codeName="Sheet1">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -627,30 +905,30 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="11" t="s">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
@@ -928,12 +1206,130 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDE678-AE05-404F-9D0B-B09F1FFE6AA6}">
+  <sheetPr codeName="Sheet10">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4007FBD-5284-4905-A65D-0EBCA39CCEAF}">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="B2:I8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -948,28 +1344,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="24.6">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" ht="24.6">
-      <c r="B3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1105,4 +1501,985 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5115BE9-2717-4DA9-A6E9-A882A8BBD36F}">
+  <sheetPr codeName="Sheet6">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C3FC0B-7D26-468C-A9B0-FC57082C16C9}">
+  <sheetPr codeName="Sheet7">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F7E56-EAC2-4DDA-8A72-70A906B77468}">
+  <sheetPr codeName="Sheet8">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFD4FC-3D51-4776-8523-27A69022D80E}">
+  <sheetPr codeName="Sheet5">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3412326-5F31-4F2A-BB4E-E684BC847D66}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7">
+        <v>255</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>255</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7">
+        <v>255</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>255</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2744C-4495-4357-B2D0-6A7A0DAB2AAD}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="17"/>
+    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="14" style="17" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="17"/>
+    <col min="7" max="7" width="15" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>255</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <v>255</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364D8FE-4362-441B-8A75-3ABE0BB4B8A7}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="19"/>
+    <col min="2" max="2" width="17.88671875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="14" style="19" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="19"/>
+    <col min="7" max="7" width="15" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Book2.xlsx
+++ b/Document/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MrFermz\leaveAppDoc\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A1F6D2-9F20-478E-BB7E-8BF3E683C847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{23A1F6D2-9F20-478E-BB7E-8BF3E683C847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{260E360F-F1E9-498C-A5A3-9C551D79CD76}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <sheet name="DICT_uploads" sheetId="11" r:id="rId9"/>
     <sheet name="DICT_leaveCapacity" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -391,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,6 +549,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -558,18 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,45 +897,45 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="37.39453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="3.09375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="16.8" customHeight="1">
+    <row r="2" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="13" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="13" t="s">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="2:21" ht="16.8" customHeight="1">
+    <row r="3" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -957,7 +959,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="2:21" ht="16.8" customHeight="1">
+    <row r="4" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -981,7 +983,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="2:21" ht="16.8" customHeight="1">
+    <row r="5" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1005,7 +1007,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:21" ht="16.8" customHeight="1">
+    <row r="6" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1029,7 +1031,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:21" ht="16.8" customHeight="1">
+    <row r="7" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1055,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:21" ht="16.8" customHeight="1">
+    <row r="8" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1079,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:21" ht="16.8" customHeight="1">
+    <row r="9" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1103,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" ht="16.8" customHeight="1">
+    <row r="10" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1127,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:21" ht="16.8" customHeight="1">
+    <row r="11" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -1149,7 +1151,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:21" ht="16.8" customHeight="1">
+    <row r="12" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1175,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:21" ht="16.8" customHeight="1">
+    <row r="13" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1214,22 +1216,22 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C6" sqref="C6:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6796875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1249,7 +1251,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
@@ -1267,7 +1269,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -1283,7 +1285,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>92</v>
       </c>
@@ -1299,7 +1301,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -1332,33 +1334,33 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.875" style="6"/>
     <col min="2" max="2" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="8.47265625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.16015625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.7421875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24.6">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="B2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" spans="2:9" ht="24.6">
-      <c r="B3" s="16"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="B3" s="20"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24.6">
+    <row r="4" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="24.6">
+    <row r="5" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="24.6">
+    <row r="6" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1455,7 +1457,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" ht="24.6">
+    <row r="7" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1477,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="24.6">
+    <row r="8" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1514,19 +1516,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1546,7 +1548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
@@ -1564,7 +1566,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>96</v>
       </c>
@@ -1597,19 +1599,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1647,7 +1649,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
@@ -1680,19 +1682,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1730,7 +1732,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
@@ -1767,19 +1769,19 @@
       <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.7734375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1801,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
@@ -1817,7 +1819,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -1833,7 +1835,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>92</v>
       </c>
@@ -1849,7 +1851,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -1865,7 +1867,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
@@ -1881,7 +1883,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
@@ -1914,19 +1916,18 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="12.9140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.87109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1">
+    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1">
+    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
@@ -1964,7 +1965,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1">
+    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1981,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1">
+    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
@@ -1996,7 +1997,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1">
+    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2013,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1">
+    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1">
+    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2045,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1">
+    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
@@ -2060,7 +2061,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
+    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1">
+    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1">
+    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1">
+    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
@@ -2157,19 +2158,19 @@
       <selection activeCell="B2" sqref="B2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17"/>
-    <col min="2" max="2" width="17.88671875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="14" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="17"/>
-    <col min="7" max="7" width="15" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="1" width="8.875" style="13"/>
+    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.4296875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="13"/>
+    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
@@ -2207,7 +2208,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
@@ -2237,7 +2238,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2251,7 +2252,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
@@ -2281,7 +2282,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
@@ -2297,7 +2298,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
@@ -2311,7 +2312,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
@@ -2325,7 +2326,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
@@ -2339,7 +2340,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
         <v>76</v>
       </c>
@@ -2355,7 +2356,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>77</v>
       </c>
@@ -2412,19 +2413,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="19"/>
-    <col min="2" max="2" width="17.88671875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="14" style="19" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="19"/>
-    <col min="7" max="7" width="15" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="8.875" style="15"/>
+    <col min="2" max="2" width="17.890625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.98828125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.23828125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="15"/>
+    <col min="7" max="7" width="14.9296875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
@@ -2462,7 +2463,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>101</v>
       </c>

--- a/Document/Book2.xlsx
+++ b/Document/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MrFermz\leaveAppDoc\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{23A1F6D2-9F20-478E-BB7E-8BF3E683C847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{260E360F-F1E9-498C-A5A3-9C551D79CD76}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7B162-A92C-44A0-BB7E-BA147213DD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
   </bookViews>
   <sheets>
     <sheet name="gantt" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -506,12 +506,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -561,17 +589,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,65 +939,65 @@
   </sheetPr>
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="37.39453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="3.09375" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:21" ht="16.95" customHeight="1">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="17" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="17" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:21" ht="16.95" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="17"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -959,23 +1005,23 @@
       <c r="T3" s="3"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:21" ht="16.95" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="17"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -983,23 +1029,23 @@
       <c r="T4" s="3"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:21" ht="16.95" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="17"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1007,23 +1053,23 @@
       <c r="T5" s="3"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:21" ht="16.95" customHeight="1">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="17"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1031,23 +1077,23 @@
       <c r="T6" s="3"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:21" ht="16.95" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1055,23 +1101,23 @@
       <c r="T7" s="3"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:21" ht="16.95" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="5"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1079,23 +1125,23 @@
       <c r="T8" s="3"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:21" ht="16.95" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1103,23 +1149,23 @@
       <c r="T9" s="3"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:21" ht="16.95" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="17"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1127,23 +1173,23 @@
       <c r="T10" s="3"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:21" ht="16.95" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1151,23 +1197,23 @@
       <c r="T11" s="3"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:21" ht="16.95" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="1"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="23"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1175,23 +1221,23 @@
       <c r="T12" s="3"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="2:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:21" ht="16.95" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -1215,23 +1261,23 @@
   </sheetPr>
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="16.6796875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1251,7 +1297,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>104</v>
       </c>
@@ -1269,7 +1315,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -1285,7 +1331,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>92</v>
       </c>
@@ -1301,7 +1347,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -1334,33 +1380,33 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.47265625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.16015625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7421875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="9.4140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="6"/>
+    <col min="3" max="3" width="8.44140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:9" ht="24.6">
+      <c r="B2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B3" s="20"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="2:9" ht="24.6">
+      <c r="B3" s="18"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1383,7 +1429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="24.6">
       <c r="B4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1455,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="24.6">
       <c r="B5" s="8" t="s">
         <v>25</v>
       </c>
@@ -1435,7 +1481,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" ht="24.6">
       <c r="B6" s="8" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1503,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="24.6">
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
@@ -1477,7 +1523,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="24.6">
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1516,19 +1562,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1548,7 +1594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
@@ -1566,7 +1612,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>96</v>
       </c>
@@ -1599,19 +1645,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1631,7 +1677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>46</v>
       </c>
@@ -1649,7 +1695,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>98</v>
       </c>
@@ -1682,19 +1728,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1714,7 +1760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1778,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>37</v>
       </c>
@@ -1769,19 +1815,19 @@
       <selection activeCell="B2" sqref="B2:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="19.7734375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
@@ -1819,7 +1865,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>91</v>
       </c>
@@ -1835,7 +1881,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>92</v>
       </c>
@@ -1851,7 +1897,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>93</v>
       </c>
@@ -1867,7 +1913,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>94</v>
       </c>
@@ -1883,7 +1929,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>95</v>
       </c>
@@ -1916,18 +1962,18 @@
       <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="12.9140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.87109375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -1947,7 +1993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
@@ -1965,7 +2011,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +2027,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="18" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>39</v>
       </c>
@@ -1997,7 +2043,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="18" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>40</v>
       </c>
@@ -2013,7 +2059,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="18" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>41</v>
       </c>
@@ -2029,7 +2075,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="18" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
@@ -2045,7 +2091,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="18" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
@@ -2061,7 +2107,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="18" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
@@ -2081,7 +2127,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="18" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
@@ -2101,7 +2147,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="18" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -2121,7 +2167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="18" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
@@ -2158,19 +2204,19 @@
       <selection activeCell="B2" sqref="B2:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="13"/>
-    <col min="2" max="2" width="17.890625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.4296875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="13"/>
-    <col min="7" max="7" width="14.9296875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
@@ -2208,7 +2254,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
@@ -2224,7 +2270,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B5" s="8" t="s">
         <v>68</v>
       </c>
@@ -2238,7 +2284,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2252,7 +2298,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B7" s="8" t="s">
         <v>70</v>
       </c>
@@ -2266,7 +2312,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>71</v>
       </c>
@@ -2282,7 +2328,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B9" s="8" t="s">
         <v>72</v>
       </c>
@@ -2298,7 +2344,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B10" s="8" t="s">
         <v>73</v>
       </c>
@@ -2312,7 +2358,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B11" s="8" t="s">
         <v>74</v>
       </c>
@@ -2326,7 +2372,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
@@ -2340,7 +2386,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B13" s="8" t="s">
         <v>76</v>
       </c>
@@ -2356,7 +2402,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B14" s="8" t="s">
         <v>37</v>
       </c>
@@ -2376,7 +2422,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B15" s="8" t="s">
         <v>77</v>
       </c>
@@ -2413,19 +2459,19 @@
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="15"/>
-    <col min="2" max="2" width="17.890625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.98828125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.23828125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="17.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="15" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="15"/>
-    <col min="7" max="7" width="14.9296875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="15"/>
+    <col min="6" max="6" width="8.88671875" style="15"/>
+    <col min="7" max="7" width="14.88671875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
@@ -2445,7 +2491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
@@ -2463,7 +2509,7 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>101</v>
       </c>

--- a/Document/Book2.xlsx
+++ b/Document/Book2.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\MrFermz\leaveAppDoc\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D7B162-A92C-44A0-BB7E-BA147213DD30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F16A44F-8B3C-4BB3-8BCC-C668FA6B1A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{E048DDB7-9262-4DAF-A782-BEA426FB0660}"/>
   </bookViews>
   <sheets>
     <sheet name="gantt" sheetId="1" r:id="rId1"/>
-    <sheet name="Matrix_table" sheetId="2" r:id="rId2"/>
-    <sheet name="DICT_userTypes" sheetId="8" r:id="rId3"/>
-    <sheet name="DICT_departments" sheetId="9" r:id="rId4"/>
-    <sheet name="DICT_approver" sheetId="10" r:id="rId5"/>
-    <sheet name="DICT_leavecount" sheetId="7" r:id="rId6"/>
-    <sheet name="DICT_users" sheetId="3" r:id="rId7"/>
-    <sheet name="DICT_leaves" sheetId="6" r:id="rId8"/>
-    <sheet name="DICT_uploads" sheetId="11" r:id="rId9"/>
-    <sheet name="DICT_leaveCapacity" sheetId="13" r:id="rId10"/>
+    <sheet name="ข1" sheetId="15" r:id="rId2"/>
+    <sheet name="ข2" sheetId="16" r:id="rId3"/>
+    <sheet name="ข3" sheetId="14" r:id="rId4"/>
+    <sheet name="Matrix_table" sheetId="2" r:id="rId5"/>
+    <sheet name="DICT_userTypes" sheetId="8" r:id="rId6"/>
+    <sheet name="DICT_departments" sheetId="9" r:id="rId7"/>
+    <sheet name="DICT_approver" sheetId="10" r:id="rId8"/>
+    <sheet name="DICT_leavecount" sheetId="7" r:id="rId9"/>
+    <sheet name="DICT_users" sheetId="3" r:id="rId10"/>
+    <sheet name="DICT_leaves" sheetId="6" r:id="rId11"/>
+    <sheet name="DICT_uploads" sheetId="11" r:id="rId12"/>
+    <sheet name="DICT_leaveCapacity" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="147">
   <si>
     <t>หัวข้องาน</t>
   </si>
@@ -387,6 +388,102 @@
   </si>
   <si>
     <t>วันที่บันทึกการอนุมัติ</t>
+  </si>
+  <si>
+    <t>แบบประเมินความพึงพอใจผู้ใช้งานระบบ</t>
+  </si>
+  <si>
+    <t>รายการ</t>
+  </si>
+  <si>
+    <t>ด้านความต้องการ</t>
+  </si>
+  <si>
+    <t>คนที่</t>
+  </si>
+  <si>
+    <t>𝑥̅</t>
+  </si>
+  <si>
+    <t>S.D.</t>
+  </si>
+  <si>
+    <t>รวม</t>
+  </si>
+  <si>
+    <t>จำนวน</t>
+  </si>
+  <si>
+    <t>ร้อยละ</t>
+  </si>
+  <si>
+    <t>ประเภทผู้ใช้</t>
+  </si>
+  <si>
+    <t>ฝ่ายทรัพยากรบุคคล</t>
+  </si>
+  <si>
+    <t>โพรดิวเซอร์</t>
+  </si>
+  <si>
+    <t>หัวหน้างาน</t>
+  </si>
+  <si>
+    <t>พนักงาน</t>
+  </si>
+  <si>
+    <t>ค่าเฉลี่ย</t>
+  </si>
+  <si>
+    <t>แปลค่า</t>
+  </si>
+  <si>
+    <t>ด้านความง่ายต่อการใช้งานระบบ</t>
+  </si>
+  <si>
+    <t>ด้านตรงตามความต้องการของผู้ใช้ระบบ</t>
+  </si>
+  <si>
+    <t>มาก</t>
+  </si>
+  <si>
+    <t>ปานกลาง</t>
+  </si>
+  <si>
+    <t>ดีมาก</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. ความสามารถส่วนของการเข้าสู่ระบบ </t>
+  </si>
+  <si>
+    <t>2. ความสามารถส่วนของการสมัครสมาชิกเข้าใช้ระบบ</t>
+  </si>
+  <si>
+    <t>3. ความสามารถในการทำงานของระบบโดยรวม</t>
+  </si>
+  <si>
+    <t>ด้านการทำงานได้ตามฟังก์ชั่นการทำงาน</t>
+  </si>
+  <si>
+    <t>4. การใช้คำสั่งต่าง ๆ ของเมนูมีความสะดวก</t>
+  </si>
+  <si>
+    <t>5. ความถูกต้องในการแสดงรายละเอียดข้อมูล</t>
+  </si>
+  <si>
+    <t>6. ความรวดเร็วในการทำงานของระบบ</t>
+  </si>
+  <si>
+    <t>7. ความถูกต้องของระบบในภาพรวม</t>
+  </si>
+  <si>
+    <t>8. ความเหมาะสมในการเลือกใช้ชนิด ขนาด สีตัวอักษรบนจอภาพ</t>
+  </si>
+  <si>
+    <t>9. ความเหมาะสมในการใช้ข้อความเพื่ออธิบายสื่อความหมาย</t>
+  </si>
+  <si>
+    <t>10. ความเหมาะสมในการใช้สัญลักษณ์ในการสื่อความหมาย</t>
   </si>
 </sst>
 </file>
@@ -539,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -593,31 +690,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,6 +784,451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9B3C7E-8781-4797-B668-85242EE1B939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="2205990"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4866AA7D-907A-4B69-9D60-836F6BBCF8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="2215403"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F0949C-976B-4E97-B757-8F25AE263FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="2842932"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2177D4CC-B075-4CE4-A8E5-BE0532F3B5A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="2842932"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28218AE6-4EAC-455D-90D4-D1079985111D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="2842932"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB42818-96E4-46DA-ABF1-FF60CB215450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="3784226"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601DD2F0-598F-41D8-93FD-A0C553181A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="4411756"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9C5353D-7FCC-4D50-810F-1206057243F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8154296" y="4411756"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,8 +1533,8 @@
   </sheetPr>
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -950,33 +1544,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="16.95" customHeight="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="21" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="21" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="21" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="4"/>
@@ -988,15 +1582,15 @@
       <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="24"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="17"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="24"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="17"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="24"/>
+      <c r="N3" s="20"/>
       <c r="O3" s="17"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1012,15 +1606,15 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="24"/>
+      <c r="F4" s="20"/>
       <c r="G4" s="17"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="24"/>
+      <c r="J4" s="20"/>
       <c r="K4" s="17"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="24"/>
+      <c r="N4" s="20"/>
       <c r="O4" s="17"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1036,15 +1630,15 @@
       <c r="C5" s="1"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="24"/>
+      <c r="F5" s="20"/>
       <c r="G5" s="17"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="24"/>
+      <c r="J5" s="20"/>
       <c r="K5" s="17"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="24"/>
+      <c r="N5" s="20"/>
       <c r="O5" s="17"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1060,15 +1654,15 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="17"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="24"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="17"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="24"/>
+      <c r="N6" s="20"/>
       <c r="O6" s="17"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1084,15 +1678,15 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="24"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="17"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="24"/>
+      <c r="N7" s="20"/>
       <c r="O7" s="17"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1108,15 +1702,15 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="23"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="5"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="24"/>
+      <c r="J8" s="20"/>
       <c r="K8" s="17"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="20"/>
       <c r="O8" s="17"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1132,15 +1726,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="24"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="17"/>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="23"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="24"/>
+      <c r="N9" s="20"/>
       <c r="O9" s="17"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1156,15 +1750,15 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="24"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="17"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="23"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="24"/>
+      <c r="N10" s="20"/>
       <c r="O10" s="17"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1180,15 +1774,15 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="24"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="17"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="5"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="24"/>
+      <c r="N11" s="20"/>
       <c r="O11" s="17"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1204,16 +1798,16 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="17"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="17"/>
       <c r="L12" s="1"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="23"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1228,15 +1822,15 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="24"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="17"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="20"/>
       <c r="K13" s="17"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="24"/>
+      <c r="N13" s="20"/>
       <c r="O13" s="17"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="5"/>
@@ -1255,6 +1849,586 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3412326-5F31-4F2A-BB4E-E684BC847D66}">
+  <sheetPr codeName="Sheet3">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7">
+        <v>255</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7">
+        <v>255</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="18" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7">
+        <v>255</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>255</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="18" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="18" customHeight="1">
+      <c r="B13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7">
+        <v>11</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2744C-4495-4357-B2D0-6A7A0DAB2AAD}">
+  <sheetPr codeName="Sheet4">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7">
+        <v>255</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>255</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7">
+        <v>255</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364D8FE-4362-441B-8A75-3ABE0BB4B8A7}">
+  <sheetPr codeName="Sheet9">
+    <tabColor theme="8" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="15"/>
+    <col min="2" max="2" width="17.88671875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="14" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="15"/>
+    <col min="7" max="7" width="14.88671875" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>255</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDE678-AE05-404F-9D0B-B09F1FFE6AA6}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1370,6 +2544,682 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1EA34E-54C7-4E12-9219-7C81F60A1C20}">
+  <dimension ref="B2:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.6"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="13"/>
+    <col min="2" max="2" width="29.6640625" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="24">
+        <v>1</v>
+      </c>
+      <c r="D3" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2</v>
+      </c>
+      <c r="D6" s="24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="24">
+        <v>5</v>
+      </c>
+      <c r="D7" s="24">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647AD5FF-EDCE-4022-B0FE-BD2C00448FC2}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.6"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="32"/>
+    <col min="2" max="2" width="52.88671875" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="24">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4.2</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" s="24">
+        <v>4.8</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F0064B-846B-4071-A945-636E543FBD5C}">
+  <dimension ref="B2:X19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="24.6"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="13"/>
+    <col min="8" max="9" width="6.21875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9">
+      <c r="B2" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="31"/>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7">
+        <f>AVERAGE(C6:G6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="43">
+        <f>STDEV(C6:G6)</f>
+        <v>0.83666002653407512</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" ref="H7:H8" si="0">AVERAGE(C7:G7)</f>
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" ref="I7:I17" si="1">STDEV(C7:G7)</f>
+        <v>1.7888543819998315</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>5</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="I8" s="43">
+        <f t="shared" si="1"/>
+        <v>0.83666002653407512</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f>AVERAGE(C10:G10)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I10" s="43">
+        <f t="shared" si="1"/>
+        <v>0.54772255750516674</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" ref="H11:H13" si="2">AVERAGE(C11:G11)</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="1"/>
+        <v>0.8944271909999163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>5</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" si="1"/>
+        <v>0.83666002653407512</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="7">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
+        <f>AVERAGE(C15:G15)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" si="1"/>
+        <v>0.8944271909999163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" ref="H16:H17" si="3">AVERAGE(C16:G16)</f>
+        <v>4.2</v>
+      </c>
+      <c r="I16" s="43">
+        <f t="shared" si="1"/>
+        <v>0.83666002653407512</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>5</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8</v>
+      </c>
+      <c r="I17" s="43">
+        <f t="shared" si="1"/>
+        <v>0.44721359549995787</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="7">
+        <f>AVERAGE(H15:H17,H10:H13,H6:H8)</f>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="I18" s="43">
+        <f>AVERAGE(I15:I17,I10:I13,I6:I8)</f>
+        <v>0.89192850231410881</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="X19" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B18:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4007FBD-5284-4905-A65D-0EBCA39CCEAF}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1392,21 +3242,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="24.6">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:9" ht="24.6">
-      <c r="B3" s="18"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5115BE9-2717-4DA9-A6E9-A882A8BBD36F}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1634,7 +3484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C3FC0B-7D26-468C-A9B0-FC57082C16C9}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1717,7 +3567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698F7E56-EAC2-4DDA-8A72-70A906B77468}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1804,7 +3654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BFFD4FC-3D51-4776-8523-27A69022D80E}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="8" tint="0.39997558519241921"/>
@@ -1949,584 +3799,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3412326-5F31-4F2A-BB4E-E684BC847D66}">
-  <sheetPr codeName="Sheet3">
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="B2:G13"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="12.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.33203125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="18" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" ht="18" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7">
-        <v>20</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="18" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="7">
-        <v>255</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" ht="18" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="7">
-        <v>255</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="7">
-        <v>255</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7">
-        <v>255</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>255</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="7">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="18" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="7">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="18" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2744C-4495-4357-B2D0-6A7A0DAB2AAD}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="B2:G15"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="14.88671875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7">
-        <v>255</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="7">
-        <v>255</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>255</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7">
-        <v>255</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7">
-        <v>11</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="7">
-        <v>11</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8364D8FE-4362-441B-8A75-3ABE0BB4B8A7}">
-  <sheetPr codeName="Sheet9">
-    <tabColor theme="8" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="B2:G4"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18.600000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="15"/>
-    <col min="2" max="2" width="17.88671875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="14" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="15"/>
-    <col min="7" max="7" width="14.88671875" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="7">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="2:7" ht="18.600000000000001" customHeight="1">
-      <c r="B4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="7">
-        <v>255</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>